--- a/ENMTML/Outfiles/run_PCA_4algs_kfold_prev1_03-29-2022/Validation/CLMX_ens_poly_extract_mixed.xlsx
+++ b/ENMTML/Outfiles/run_PCA_4algs_kfold_prev1_03-29-2022/Validation/CLMX_ens_poly_extract_mixed.xlsx
@@ -1,104 +1,94 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20382"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\barkebri\Documents\Species\BOXB\ENMTML\Outfiles\run_PCA_4algs_kfold_prev1_03-29-2022\Validation\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D3D35C9-834E-416D-ABEA-1F8A077D6F8F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13128" windowHeight="6108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="24">
-  <si>
-    <t>clmx</t>
-  </si>
-  <si>
-    <t>ens</t>
-  </si>
-  <si>
-    <t>Region</t>
-  </si>
-  <si>
-    <t>Site</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>both</t>
-  </si>
-  <si>
-    <t>Illinois</t>
-  </si>
-  <si>
-    <t>Lake County</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>Wisconsin</t>
-  </si>
-  <si>
-    <t>Dane County</t>
-  </si>
-  <si>
-    <t>Virginia</t>
-  </si>
-  <si>
-    <t>Williamsburg</t>
-  </si>
-  <si>
-    <t>Oregon</t>
-  </si>
-  <si>
-    <t>Canby</t>
-  </si>
-  <si>
-    <t>Damascus</t>
-  </si>
-  <si>
-    <t>Eagle Creek</t>
-  </si>
-  <si>
-    <t>Forest Grove</t>
-  </si>
-  <si>
-    <t>California</t>
-  </si>
-  <si>
-    <t>Danville</t>
-  </si>
-  <si>
-    <t>Hillsborough</t>
-  </si>
-  <si>
-    <t>St. Paul</t>
-  </si>
-  <si>
-    <t>Woodburn</t>
-  </si>
-  <si>
-    <t>Lebanon</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+  <si>
+    <t xml:space="preserve">clmx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Region</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Site</t>
+  </si>
+  <si>
+    <t xml:space="preserve">both</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oregon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clackamas County 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clackamas County 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clackamas County 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linn County</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marion County 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marion County 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Illinois</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lake County</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wisconsin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dane County</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Virginia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Williamsburg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">California</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Danville</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hillsborough</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -134,15 +124,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -424,16 +405,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -447,7 +426,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -461,77 +440,77 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="6">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -542,26 +521,26 @@
         <v>13</v>
       </c>
       <c r="D8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
@@ -570,53 +549,39 @@
         <v>18</v>
       </c>
       <c r="D10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" t="s">
-        <v>13</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>